--- a/Descripción Tabla Dynamo.xlsx
+++ b/Descripción Tabla Dynamo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\remote\github.com\TrabajoTerminal_Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC1516B7-09DD-4C5B-905A-C1D2E60F76A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4D62C9-7E90-41F1-B632-901AD8C0CC5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="601" activeTab="2" xr2:uid="{688660D4-2A83-43D2-B22A-9548E22189DB}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2089" uniqueCount="323">
   <si>
     <t>Pregunta</t>
   </si>
@@ -4306,12 +4306,6 @@
     <t>Permite Filtrar por la orden de compra que es copia del Vendedor</t>
   </si>
   <si>
-    <t>Se obtiene la copia de la orden de compra del cliente</t>
-  </si>
-  <si>
-    <t>Se obtiene la copia de la orden de compra del vendedor</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -4458,6 +4452,2784 @@
       </rPr>
       <t>}</t>
     </r>
+  </si>
+  <si>
+    <t>Se obtiene la copia de la orden de compra del lado del cliente</t>
+  </si>
+  <si>
+    <t>Se obtiene la copia de la orden de compra del lado del vendedor</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>USER</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>CLIENTE</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>#{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>IdUser</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>}#{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>PrecioBruto</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>USER</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>VENDEDOR</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>#{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>IdUser</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>}#{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>PrecioBruto</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>USER</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>CLIENTE</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>#{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>IdUser</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>}#{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>CantidadDescuento</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>USER</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>VENDEDOR</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>#{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>IdUser</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>}#{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>CantidadDescuento</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>USER</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>CLIENTE</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>#{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>IdUser</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>}#{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>PrecioNeto</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>USER</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>VENDEDOR</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>#{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>IdUser</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>}#{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>PrecioNeto</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>Permite Filtrar por la Fecha de compra de la orden de compra que es copia del Cliente</t>
+  </si>
+  <si>
+    <t>Permite Filtrar por la Fecha de compra de la orden de compra que es copia del Vendedor</t>
+  </si>
+  <si>
+    <t>Se obtiene la copia de la Fecha de compra de la orden de compra del lado del vendedor</t>
+  </si>
+  <si>
+    <t>Se obtiene la copia de la Fecha de compra de la orden de compra del lado del cliente</t>
+  </si>
+  <si>
+    <t>Permite Filtrar por el precio Bruto de la orden de compra que es copia del Cliente</t>
+  </si>
+  <si>
+    <t>Permite Filtrar por el precio Bruto de la orden de compra que es copia del Vendedor</t>
+  </si>
+  <si>
+    <t>Se obtiene la copia de el precio Bruto de la orden de compra del lado del vendedor</t>
+  </si>
+  <si>
+    <t>Permite Filtrar por la Cantidad de Descuento de la orden de compra que es copia del Vendedor</t>
+  </si>
+  <si>
+    <t>Permite Filtrar por la Cantidad de Descuento de la orden de compra que es copia del Cliente</t>
+  </si>
+  <si>
+    <t>Se obtiene la copia de la Cantidad de Descuento de la orden de compra del lado del cliente</t>
+  </si>
+  <si>
+    <t>Se obtiene la copia de la Cantidad de Descuento de la orden de compra del lado del vendedor</t>
+  </si>
+  <si>
+    <t>Se obtiene la copia de el precio Bruto de la orden de compra del lado del cliente</t>
+  </si>
+  <si>
+    <t>Permite Filtrar por el Precio Neto de la orden de compra que es copia del Cliente</t>
+  </si>
+  <si>
+    <t>Permite Filtrar por el Precio Neto de la orden de compra que es copia del Vendedor</t>
+  </si>
+  <si>
+    <t>Se obtiene la copia de el Precio Neto de la orden de compra del lado del cliente</t>
+  </si>
+  <si>
+    <t>Se obtiene la copia de el Precio Neto de la orden de compra del lado del vendedor</t>
+  </si>
+  <si>
+    <t>DETALLECOMPRA</t>
+  </si>
+  <si>
+    <t>Permite consultar Detalles de compra de una Orden de Compra de una Venta/Compra Realizada</t>
+  </si>
+  <si>
+    <t>Se obtiene el listado de todo el detalle de compra de una Orden de Compra del sistema.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>ORDENCOMPRA</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>USER</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>CLIENTE</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>#{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>IdUser</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>}#{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>IdOrdenCompra</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>Permite Filtrar por los detalles de compra de una orden de compra que es copia del Cliente</t>
+  </si>
+  <si>
+    <t>Se obtiene la copia del detalle de venta de una orden de compra del lado del cliente</t>
+  </si>
+  <si>
+    <t>CantidadDeproductos</t>
+  </si>
+  <si>
+    <t>IdentificadorProducto</t>
+  </si>
+  <si>
+    <t>Precio</t>
+  </si>
+  <si>
+    <t>Impuestos</t>
+  </si>
+  <si>
+    <t>Descuento por producto</t>
+  </si>
+  <si>
+    <t>Subtotal</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>ORDENCOMPRA</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>USER</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>VENDEDOR</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>#{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>IdUser</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>}#{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>IdOrdenCompra</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>Permite Filtrar por los detalles de compra de una orden de compra que es copia del Vendedor</t>
+  </si>
+  <si>
+    <t>Se obtiene la copia del detalle de venta de una orden de compra del lado del Vendedor</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>CantidadDeproductos</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>}#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>ORDENCOMPRA</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>USER</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>CLIENTE</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>#{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>IdUser</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>}#{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>IdOrdenCompra</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>CantidadDeproductos</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>}#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>ORDENCOMPRA</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>USER</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>VENDEDOR</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>#{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>IdUser</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>}#{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>IdOrdenCompra</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>USER</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>#{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>IdUser</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>}#{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>IdProducto</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>}#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>ORDENCOMPRA</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>USER</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>CLIENTE</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>#{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>IdUser</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>}#{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>IdOrdenCompra</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>USER</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>#{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>IdUser</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>}#{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>IdProducto</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>}#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>ORDENCOMPRA</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>USER</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>VENDEDOR</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>#{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>IdUser</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>}#{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>IdOrdenCompra</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>Precio</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>}#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>ORDENCOMPRA</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>USER</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>CLIENTE</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>#{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>IdUser</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>}#{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>IdOrdenCompra</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>Precio</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>}#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>ORDENCOMPRA</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>USER</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>VENDEDOR</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>#{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>IdUser</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>}#{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>IdOrdenCompra</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>Costo</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>}#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>ORDENCOMPRA</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>USER</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>CLIENTE</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>#{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>IdUser</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>}#{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>IdOrdenCompra</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>Costo</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>}#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>ORDENCOMPRA</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>USER</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>VENDEDOR</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>#{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>IdUser</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>}#{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>IdOrdenCompra</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>Impuestos</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>}#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>ORDENCOMPRA</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>USER</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>CLIENTE</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>#{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>IdUser</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>}#{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>IdOrdenCompra</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>Impuestos</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>}#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>ORDENCOMPRA</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>USER</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>VENDEDOR</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>#{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>IdUser</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>}#{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>IdOrdenCompra</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>Recompensa</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>Recompensa</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>}#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>ORDENCOMPRA</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>USER</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>CLIENTE</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>#{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>IdUser</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>}#{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>IdOrdenCompra</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>Recompensa</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>}#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>ORDENCOMPRA</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>USER</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>VENDEDOR</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>#{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>IdUser</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>}#{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>IdOrdenCompra</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>Descuento</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>}#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>ORDENCOMPRA</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>USER</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>CLIENTE</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>#{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>IdUser</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>}#{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>IdOrdenCompra</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>Descuento</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>}#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>ORDENCOMPRA</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>USER</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>VENDEDOR</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>#{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>IdUser</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>}#{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>IdOrdenCompra</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>Subtotal</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>}#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>ORDENCOMPRA</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>USER</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>CLIENTE</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>#{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>IdUser</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>}#{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>IdOrdenCompra</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>Subtotal</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>}#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>ORDENCOMPRA</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>USER</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>VENDEDOR</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>#{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>IdUser</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>}#{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>IdOrdenCompra</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Congenial SemiBold"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>Permite Filtrar por la cantidad de productos de un detalle de compra de una orden de compra que es copia del Vendedor</t>
+  </si>
+  <si>
+    <t>Permite Filtrar por la cantidad de productos de un detalle de compra de una orden de compra que es copia del Cliente</t>
+  </si>
+  <si>
+    <t>Se obtiene la copia de la cantidad de productos de un detalle de venta de una orden de compra del lado del cliente</t>
+  </si>
+  <si>
+    <t>Se obtiene la copia de la cantidad de productos de un detalle de venta de una orden de compra del lado del Vendedor</t>
+  </si>
+  <si>
+    <t>Permite Filtrar por el identificador de producto de un detalle de compra de una orden de compra que es copia del Cliente</t>
+  </si>
+  <si>
+    <t>Permite Filtrar por el identificador de producto de un detalle de compra de una orden de compra que es copia del Vendedor</t>
+  </si>
+  <si>
+    <t>Se obtiene la copia de el identificador de producto de un detalle de venta de una orden de compra del lado del cliente</t>
+  </si>
+  <si>
+    <t>Se obtiene la copia de el identificador de producto de un detalle de venta de una orden de compra del lado del Vendedor</t>
+  </si>
+  <si>
+    <t>Permite Filtrar por el Costo de producto de un detalle de compra de una orden de compra que es copia del Cliente</t>
+  </si>
+  <si>
+    <t>Permite Filtrar por el Costo de producto de un detalle de compra de una orden de compra que es copia del Vendedor</t>
+  </si>
+  <si>
+    <t>Se obtiene la copia de el Costo de producto de un detalle de venta de una orden de compra del lado del Vendedor</t>
+  </si>
+  <si>
+    <t>Se obtiene la copia de el Costo de producto de un detalle de venta de una orden de compra del lado del cliente</t>
+  </si>
+  <si>
+    <t>Permite Filtrar por el Precio de producto de un detalle de compra de una orden de compra que es copia del Cliente</t>
+  </si>
+  <si>
+    <t>Permite Filtrar por el Precio de producto de un detalle de compra de una orden de compra que es copia del Vendedor</t>
+  </si>
+  <si>
+    <t>Se obtiene la copia de el Precio de producto de un detalle de venta de una orden de compra del lado del cliente</t>
+  </si>
+  <si>
+    <t>Se obtiene la copia de el Precio de producto de un detalle de venta de una orden de compra del lado del Vendedor</t>
+  </si>
+  <si>
+    <t>Permite Filtrar por el Impuesto de producto de un detalle de compra de una orden de compra que es copia del Cliente</t>
+  </si>
+  <si>
+    <t>Permite Filtrar por el Impuesto de producto de un detalle de compra de una orden de compra que es copia del Vendedor</t>
+  </si>
+  <si>
+    <t>Se obtiene la copia de el Impuesto de producto de un detalle de venta de una orden de compra del lado del cliente</t>
+  </si>
+  <si>
+    <t>Se obtiene la copia de el Impuesto de producto de un detalle de venta de una orden de compra del lado del Vendedor</t>
+  </si>
+  <si>
+    <t>Permite Filtrar por el Descuento de producto de un detalle de compra de una orden de compra que es copia del Cliente</t>
+  </si>
+  <si>
+    <t>Permite Filtrar por el Descuento de producto de un detalle de compra de una orden de compra que es copia del Vendedor</t>
+  </si>
+  <si>
+    <t>Se obtiene la copia de el Descuento de producto de un detalle de venta de una orden de compra del lado del cliente</t>
+  </si>
+  <si>
+    <t>Se obtiene la copia de el Descuento de producto de un detalle de venta de una orden de compra del lado del Vendedor</t>
+  </si>
+  <si>
+    <t>Permite Filtrar por el Subtotal de producto de un detalle de compra de una orden de compra que es copia del Cliente</t>
+  </si>
+  <si>
+    <t>Permite Filtrar por el Subtotal de producto de un detalle de compra de una orden de compra que es copia del Vendedor</t>
+  </si>
+  <si>
+    <t>Se obtiene la copia de el Subtotal de producto de un detalle de venta de una orden de compra del lado del cliente</t>
+  </si>
+  <si>
+    <t>Se obtiene la copia de el Subtotal de producto de un detalle de venta de una orden de compra del lado del Vendedor</t>
+  </si>
+  <si>
+    <t>Permite Filtrar por la Recompensa de producto de un detalle de compra de una orden de compra que es copia del Cliente</t>
+  </si>
+  <si>
+    <t>Permite Filtrar por la Recompensa de producto de un detalle de compra de una orden de compra que es copia del Vendedor</t>
+  </si>
+  <si>
+    <t>Se obtiene la copia de la Recompensa de producto de un detalle de venta de una orden de compra del lado del cliente</t>
+  </si>
+  <si>
+    <t>Se obtiene la copia de la Recompensa de producto de un detalle de venta de una orden de compra del lado del Vendedor</t>
   </si>
 </sst>
 </file>
@@ -4533,7 +7305,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -4653,11 +7425,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4761,6 +7542,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5167,21 +7957,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06A07D10-3BE2-42CE-967F-C5832599BA42}">
-  <dimension ref="A1:XFD159"/>
+  <dimension ref="A1:XFD175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C122" sqref="C122"/>
+    <sheetView tabSelected="1" topLeftCell="A166" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A172" sqref="A172:A173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
     <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="89.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="109.42578125" customWidth="1"/>
     <col min="4" max="4" width="41" customWidth="1"/>
     <col min="5" max="5" width="49.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="28.85546875" bestFit="1" customWidth="1"/>
@@ -11008,10 +13798,10 @@
       <c r="J112" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="K112" s="4"/>
-      <c r="L112" s="7"/>
-      <c r="M112" s="7"/>
-      <c r="N112" s="7"/>
+      <c r="K112" s="20"/>
+      <c r="L112" s="21"/>
+      <c r="M112" s="21"/>
+      <c r="N112" s="34"/>
     </row>
     <row r="113" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="17"/>
@@ -11034,10 +13824,10 @@
       <c r="J113" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K113" s="7"/>
-      <c r="L113" s="7"/>
-      <c r="M113" s="7"/>
-      <c r="N113" s="7"/>
+      <c r="K113" s="14"/>
+      <c r="L113" s="37"/>
+      <c r="M113" s="37"/>
+      <c r="N113" s="38"/>
     </row>
     <row r="114" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="16" t="s">
@@ -11053,7 +13843,7 @@
         <v>230</v>
       </c>
       <c r="E114" s="12" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F114" s="10" t="s">
         <v>226</v>
@@ -11070,10 +13860,10 @@
       <c r="J114" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="K114" s="4"/>
-      <c r="L114" s="4"/>
-      <c r="M114" s="4"/>
-      <c r="N114" s="4"/>
+      <c r="K114" s="14"/>
+      <c r="L114" s="37"/>
+      <c r="M114" s="37"/>
+      <c r="N114" s="38"/>
     </row>
     <row r="115" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="17"/>
@@ -11081,9 +13871,7 @@
       <c r="C115" s="19"/>
       <c r="D115" s="13"/>
       <c r="E115" s="13"/>
-      <c r="F115" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="F115" s="6"/>
       <c r="G115" s="6" t="s">
         <v>22</v>
       </c>
@@ -11096,10 +13884,10 @@
       <c r="J115" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K115" s="7"/>
-      <c r="L115" s="7"/>
-      <c r="M115" s="7"/>
-      <c r="N115" s="7"/>
+      <c r="K115" s="14"/>
+      <c r="L115" s="37"/>
+      <c r="M115" s="37"/>
+      <c r="N115" s="38"/>
     </row>
     <row r="116" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="16" t="s">
@@ -11115,7 +13903,7 @@
         <v>232</v>
       </c>
       <c r="E116" s="12" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F116" s="10" t="s">
         <v>226</v>
@@ -11132,10 +13920,10 @@
       <c r="J116" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="K116" s="7"/>
-      <c r="L116" s="7"/>
-      <c r="M116" s="7"/>
-      <c r="N116" s="7"/>
+      <c r="K116" s="14"/>
+      <c r="L116" s="37"/>
+      <c r="M116" s="37"/>
+      <c r="N116" s="38"/>
     </row>
     <row r="117" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="17"/>
@@ -11143,9 +13931,7 @@
       <c r="C117" s="19"/>
       <c r="D117" s="13"/>
       <c r="E117" s="13"/>
-      <c r="F117" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="F117" s="6"/>
       <c r="G117" s="6" t="s">
         <v>22</v>
       </c>
@@ -11158,10 +13944,10 @@
       <c r="J117" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K117" s="4"/>
-      <c r="L117" s="4"/>
-      <c r="M117" s="4"/>
-      <c r="N117" s="4"/>
+      <c r="K117" s="14"/>
+      <c r="L117" s="37"/>
+      <c r="M117" s="37"/>
+      <c r="N117" s="38"/>
     </row>
     <row r="118" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="16" t="s">
@@ -11171,35 +13957,57 @@
         <v>224</v>
       </c>
       <c r="C118" s="18" t="s">
-        <v>235</v>
-      </c>
-      <c r="D118" s="5"/>
-      <c r="E118" s="5"/>
-      <c r="F118" s="6"/>
-      <c r="G118" s="7"/>
-      <c r="H118" s="7"/>
-      <c r="I118" s="7"/>
-      <c r="J118" s="7"/>
-      <c r="K118" s="7"/>
-      <c r="L118" s="7"/>
-      <c r="M118" s="7"/>
-      <c r="N118" s="7"/>
+        <v>233</v>
+      </c>
+      <c r="D118" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="E118" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="F118" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="G118" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="H118" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I118" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="J118" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="K118" s="14"/>
+      <c r="L118" s="37"/>
+      <c r="M118" s="37"/>
+      <c r="N118" s="38"/>
     </row>
     <row r="119" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="17"/>
       <c r="B119" s="13"/>
       <c r="C119" s="19"/>
-      <c r="D119" s="5"/>
-      <c r="E119" s="5"/>
-      <c r="F119" s="6"/>
+      <c r="D119" s="13"/>
+      <c r="E119" s="13"/>
+      <c r="F119" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="G119" s="7"/>
-      <c r="H119" s="7"/>
-      <c r="I119" s="7"/>
-      <c r="J119" s="7"/>
-      <c r="K119" s="7"/>
-      <c r="L119" s="7"/>
-      <c r="M119" s="7"/>
-      <c r="N119" s="7"/>
+      <c r="H119" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I119" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J119" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K119" s="14"/>
+      <c r="L119" s="37"/>
+      <c r="M119" s="37"/>
+      <c r="N119" s="38"/>
     </row>
     <row r="120" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="16" t="s">
@@ -11209,35 +14017,57 @@
         <v>224</v>
       </c>
       <c r="C120" s="18" t="s">
-        <v>236</v>
-      </c>
-      <c r="D120" s="5"/>
-      <c r="E120" s="5"/>
-      <c r="F120" s="6"/>
-      <c r="G120" s="7"/>
-      <c r="H120" s="7"/>
-      <c r="I120" s="7"/>
-      <c r="J120" s="7"/>
-      <c r="K120" s="7"/>
-      <c r="L120" s="7"/>
-      <c r="M120" s="7"/>
-      <c r="N120" s="7"/>
+        <v>234</v>
+      </c>
+      <c r="D120" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="E120" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="F120" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="G120" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="H120" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I120" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="J120" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="K120" s="14"/>
+      <c r="L120" s="37"/>
+      <c r="M120" s="37"/>
+      <c r="N120" s="38"/>
     </row>
     <row r="121" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="17"/>
       <c r="B121" s="13"/>
       <c r="C121" s="19"/>
-      <c r="D121" s="5"/>
-      <c r="E121" s="5"/>
-      <c r="F121" s="6"/>
+      <c r="D121" s="13"/>
+      <c r="E121" s="13"/>
+      <c r="F121" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="G121" s="7"/>
-      <c r="H121" s="7"/>
-      <c r="I121" s="7"/>
-      <c r="J121" s="7"/>
-      <c r="K121" s="7"/>
-      <c r="L121" s="7"/>
-      <c r="M121" s="7"/>
-      <c r="N121" s="7"/>
+      <c r="H121" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I121" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J121" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K121" s="14"/>
+      <c r="L121" s="37"/>
+      <c r="M121" s="37"/>
+      <c r="N121" s="38"/>
     </row>
     <row r="122" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="16" t="s">
@@ -11246,34 +14076,58 @@
       <c r="B122" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="C122" s="6"/>
-      <c r="D122" s="5"/>
-      <c r="E122" s="5"/>
-      <c r="F122" s="6"/>
-      <c r="G122" s="7"/>
-      <c r="H122" s="7"/>
-      <c r="I122" s="7"/>
-      <c r="J122" s="7"/>
-      <c r="K122" s="7"/>
-      <c r="L122" s="7"/>
-      <c r="M122" s="7"/>
-      <c r="N122" s="7"/>
+      <c r="C122" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="D122" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="E122" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="F122" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="G122" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="H122" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I122" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="J122" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="K122" s="14"/>
+      <c r="L122" s="37"/>
+      <c r="M122" s="37"/>
+      <c r="N122" s="38"/>
     </row>
     <row r="123" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="17"/>
       <c r="B123" s="13"/>
-      <c r="C123" s="6"/>
-      <c r="D123" s="5"/>
-      <c r="E123" s="5"/>
-      <c r="F123" s="6"/>
-      <c r="G123" s="7"/>
+      <c r="C123" s="19"/>
+      <c r="D123" s="13"/>
+      <c r="E123" s="13"/>
+      <c r="F123" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G123" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="H123" s="7"/>
-      <c r="I123" s="7"/>
-      <c r="J123" s="7"/>
-      <c r="K123" s="4"/>
-      <c r="L123" s="4"/>
-      <c r="M123" s="4"/>
-      <c r="N123" s="4"/>
+      <c r="I123" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J123" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K123" s="14"/>
+      <c r="L123" s="37"/>
+      <c r="M123" s="37"/>
+      <c r="N123" s="38"/>
     </row>
     <row r="124" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="16" t="s">
@@ -11282,34 +14136,58 @@
       <c r="B124" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="C124" s="6"/>
-      <c r="D124" s="5"/>
-      <c r="E124" s="5"/>
-      <c r="F124" s="6"/>
-      <c r="G124" s="7"/>
-      <c r="H124" s="7"/>
-      <c r="I124" s="7"/>
-      <c r="J124" s="7"/>
-      <c r="K124" s="7"/>
-      <c r="L124" s="7"/>
-      <c r="M124" s="7"/>
-      <c r="N124" s="7"/>
+      <c r="C124" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="D124" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="E124" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="F124" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="G124" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="H124" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I124" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="J124" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="K124" s="14"/>
+      <c r="L124" s="37"/>
+      <c r="M124" s="37"/>
+      <c r="N124" s="38"/>
     </row>
     <row r="125" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="17"/>
       <c r="B125" s="13"/>
-      <c r="C125" s="6"/>
-      <c r="D125" s="5"/>
-      <c r="E125" s="5"/>
-      <c r="F125" s="6"/>
-      <c r="G125" s="7"/>
+      <c r="C125" s="19"/>
+      <c r="D125" s="13"/>
+      <c r="E125" s="13"/>
+      <c r="F125" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G125" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="H125" s="7"/>
-      <c r="I125" s="7"/>
-      <c r="J125" s="7"/>
-      <c r="K125" s="7"/>
-      <c r="L125" s="7"/>
-      <c r="M125" s="7"/>
-      <c r="N125" s="7"/>
+      <c r="I125" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J125" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K125" s="14"/>
+      <c r="L125" s="37"/>
+      <c r="M125" s="37"/>
+      <c r="N125" s="38"/>
     </row>
     <row r="126" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="16" t="s">
@@ -11318,34 +14196,58 @@
       <c r="B126" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="C126" s="6"/>
-      <c r="D126" s="5"/>
-      <c r="E126" s="5"/>
-      <c r="F126" s="6"/>
-      <c r="G126" s="7"/>
-      <c r="H126" s="7"/>
-      <c r="I126" s="7"/>
-      <c r="J126" s="7"/>
-      <c r="K126" s="4"/>
-      <c r="L126" s="4"/>
-      <c r="M126" s="4"/>
-      <c r="N126" s="4"/>
+      <c r="C126" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="D126" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="E126" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="F126" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="G126" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="H126" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I126" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="J126" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="K126" s="14"/>
+      <c r="L126" s="37"/>
+      <c r="M126" s="37"/>
+      <c r="N126" s="38"/>
     </row>
     <row r="127" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="17"/>
       <c r="B127" s="13"/>
-      <c r="C127" s="6"/>
-      <c r="D127" s="5"/>
-      <c r="E127" s="5"/>
-      <c r="F127" s="6"/>
-      <c r="G127" s="7"/>
-      <c r="H127" s="7"/>
+      <c r="C127" s="19"/>
+      <c r="D127" s="13"/>
+      <c r="E127" s="13"/>
+      <c r="F127" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G127" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H127" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="I127" s="7"/>
-      <c r="J127" s="7"/>
-      <c r="K127" s="7"/>
-      <c r="L127" s="7"/>
-      <c r="M127" s="7"/>
-      <c r="N127" s="7"/>
+      <c r="J127" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K127" s="14"/>
+      <c r="L127" s="37"/>
+      <c r="M127" s="37"/>
+      <c r="N127" s="38"/>
     </row>
     <row r="128" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="16" t="s">
@@ -11354,34 +14256,58 @@
       <c r="B128" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="C128" s="6"/>
-      <c r="D128" s="5"/>
-      <c r="E128" s="5"/>
-      <c r="F128" s="6"/>
-      <c r="G128" s="7"/>
-      <c r="H128" s="7"/>
-      <c r="I128" s="7"/>
-      <c r="J128" s="7"/>
-      <c r="K128" s="7"/>
-      <c r="L128" s="7"/>
-      <c r="M128" s="7"/>
-      <c r="N128" s="7"/>
+      <c r="C128" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="D128" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="E128" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="F128" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="G128" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="H128" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I128" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="J128" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="K128" s="14"/>
+      <c r="L128" s="37"/>
+      <c r="M128" s="37"/>
+      <c r="N128" s="38"/>
     </row>
     <row r="129" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="17"/>
       <c r="B129" s="13"/>
-      <c r="C129" s="6"/>
-      <c r="D129" s="5"/>
-      <c r="E129" s="5"/>
-      <c r="F129" s="6"/>
-      <c r="G129" s="7"/>
-      <c r="H129" s="7"/>
+      <c r="C129" s="19"/>
+      <c r="D129" s="13"/>
+      <c r="E129" s="13"/>
+      <c r="F129" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G129" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H129" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="I129" s="7"/>
-      <c r="J129" s="7"/>
-      <c r="K129" s="7"/>
-      <c r="L129" s="7"/>
-      <c r="M129" s="7"/>
-      <c r="N129" s="7"/>
+      <c r="J129" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K129" s="14"/>
+      <c r="L129" s="37"/>
+      <c r="M129" s="37"/>
+      <c r="N129" s="38"/>
     </row>
     <row r="130" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="16" t="s">
@@ -11390,34 +14316,58 @@
       <c r="B130" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="C130" s="6"/>
-      <c r="D130" s="5"/>
-      <c r="E130" s="5"/>
-      <c r="F130" s="6"/>
-      <c r="G130" s="7"/>
-      <c r="H130" s="7"/>
-      <c r="I130" s="7"/>
-      <c r="J130" s="7"/>
-      <c r="K130" s="7"/>
-      <c r="L130" s="7"/>
-      <c r="M130" s="7"/>
-      <c r="N130" s="7"/>
+      <c r="C130" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="D130" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="E130" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="F130" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="G130" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="H130" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I130" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="J130" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="K130" s="14"/>
+      <c r="L130" s="37"/>
+      <c r="M130" s="37"/>
+      <c r="N130" s="38"/>
     </row>
     <row r="131" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="17"/>
       <c r="B131" s="13"/>
-      <c r="C131" s="6"/>
-      <c r="D131" s="5"/>
-      <c r="E131" s="5"/>
-      <c r="F131" s="6"/>
-      <c r="G131" s="7"/>
-      <c r="H131" s="7"/>
-      <c r="I131" s="7"/>
+      <c r="C131" s="19"/>
+      <c r="D131" s="13"/>
+      <c r="E131" s="13"/>
+      <c r="F131" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G131" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H131" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I131" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="J131" s="7"/>
-      <c r="K131" s="7"/>
-      <c r="L131" s="7"/>
-      <c r="M131" s="7"/>
-      <c r="N131" s="7"/>
+      <c r="K131" s="14"/>
+      <c r="L131" s="37"/>
+      <c r="M131" s="37"/>
+      <c r="N131" s="38"/>
     </row>
     <row r="132" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="16" t="s">
@@ -11426,453 +14376,1701 @@
       <c r="B132" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="C132" s="6"/>
-      <c r="D132" s="5"/>
-      <c r="E132" s="5"/>
-      <c r="F132" s="6"/>
-      <c r="G132" s="7"/>
-      <c r="H132" s="7"/>
-      <c r="I132" s="7"/>
-      <c r="J132" s="7"/>
-      <c r="K132" s="4"/>
-      <c r="L132" s="4"/>
-      <c r="M132" s="4"/>
-      <c r="N132" s="4"/>
+      <c r="C132" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="D132" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="E132" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="F132" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="G132" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="H132" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I132" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="J132" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="K132" s="14"/>
+      <c r="L132" s="37"/>
+      <c r="M132" s="37"/>
+      <c r="N132" s="38"/>
     </row>
     <row r="133" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="17"/>
       <c r="B133" s="13"/>
-      <c r="C133" s="6"/>
-      <c r="D133" s="5"/>
-      <c r="E133" s="5"/>
-      <c r="F133" s="6"/>
-      <c r="G133" s="7"/>
-      <c r="H133" s="7"/>
-      <c r="I133" s="7"/>
+      <c r="C133" s="19"/>
+      <c r="D133" s="13"/>
+      <c r="E133" s="13"/>
+      <c r="F133" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G133" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H133" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I133" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="J133" s="7"/>
-      <c r="K133" s="7"/>
-      <c r="L133" s="7"/>
-      <c r="M133" s="7"/>
-      <c r="N133" s="7"/>
+      <c r="K133" s="35"/>
+      <c r="L133" s="39"/>
+      <c r="M133" s="39"/>
+      <c r="N133" s="36"/>
     </row>
     <row r="134" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="5"/>
-      <c r="B134" s="5"/>
-      <c r="C134" s="6"/>
-      <c r="D134" s="5"/>
-      <c r="E134" s="5"/>
-      <c r="F134" s="6"/>
-      <c r="G134" s="7"/>
-      <c r="H134" s="7"/>
-      <c r="I134" s="7"/>
-      <c r="J134" s="7"/>
-      <c r="K134" s="7"/>
-      <c r="L134" s="7"/>
-      <c r="M134" s="7"/>
-      <c r="N134" s="7"/>
+      <c r="A134" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="B134" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="C134" s="22"/>
+      <c r="D134" s="23"/>
+      <c r="E134" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="F134" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="G134" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="H134" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="I134" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="J134" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="K134" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="L134" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="M134" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="N134" s="10" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="135" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="5"/>
-      <c r="B135" s="5"/>
-      <c r="C135" s="6"/>
-      <c r="D135" s="5"/>
-      <c r="E135" s="5"/>
-      <c r="F135" s="6"/>
-      <c r="G135" s="7"/>
-      <c r="H135" s="7"/>
-      <c r="I135" s="7"/>
-      <c r="J135" s="7"/>
-      <c r="K135" s="7"/>
-      <c r="L135" s="7"/>
-      <c r="M135" s="7"/>
-      <c r="N135" s="7"/>
+      <c r="A135" s="17"/>
+      <c r="B135" s="13"/>
+      <c r="C135" s="24"/>
+      <c r="D135" s="25"/>
+      <c r="E135" s="13"/>
+      <c r="F135" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G135" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H135" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I135" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J135" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K135" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L135" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M135" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N135" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="136" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="5"/>
-      <c r="B136" s="5"/>
-      <c r="C136" s="6"/>
-      <c r="D136" s="5"/>
-      <c r="E136" s="5"/>
-      <c r="F136" s="6"/>
-      <c r="G136" s="7"/>
-      <c r="H136" s="7"/>
-      <c r="I136" s="7"/>
-      <c r="J136" s="7"/>
-      <c r="K136" s="7"/>
-      <c r="L136" s="7"/>
-      <c r="M136" s="7"/>
-      <c r="N136" s="7"/>
+      <c r="A136" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="B136" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="C136" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="D136" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="E136" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="F136" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="G136" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="H136" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="I136" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="J136" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="K136" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="L136" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="M136" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="N136" s="10" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="137" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="5"/>
-      <c r="B137" s="5"/>
-      <c r="C137" s="6"/>
-      <c r="D137" s="5"/>
-      <c r="E137" s="5"/>
+      <c r="A137" s="17"/>
+      <c r="B137" s="13"/>
+      <c r="C137" s="19"/>
+      <c r="D137" s="13"/>
+      <c r="E137" s="13"/>
       <c r="F137" s="6"/>
-      <c r="G137" s="7"/>
-      <c r="H137" s="7"/>
-      <c r="I137" s="7"/>
-      <c r="J137" s="7"/>
-      <c r="K137" s="7"/>
-      <c r="L137" s="7"/>
-      <c r="M137" s="7"/>
-      <c r="N137" s="7"/>
+      <c r="G137" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H137" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I137" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J137" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K137" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L137" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M137" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N137" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="138" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="5"/>
-      <c r="B138" s="5"/>
-      <c r="C138" s="6"/>
-      <c r="D138" s="5"/>
-      <c r="E138" s="5"/>
-      <c r="F138" s="6"/>
-      <c r="G138" s="7"/>
-      <c r="H138" s="7"/>
-      <c r="I138" s="7"/>
-      <c r="J138" s="7"/>
-      <c r="K138" s="4"/>
-      <c r="L138" s="4"/>
-      <c r="M138" s="4"/>
-      <c r="N138" s="4"/>
+      <c r="A138" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="B138" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="C138" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="D138" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="E138" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="F138" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="G138" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="H138" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="I138" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="J138" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="K138" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="L138" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="M138" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="N138" s="10" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="139" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="5"/>
-      <c r="B139" s="5"/>
-      <c r="C139" s="6"/>
-      <c r="D139" s="5"/>
-      <c r="E139" s="5"/>
+      <c r="A139" s="17"/>
+      <c r="B139" s="13"/>
+      <c r="C139" s="19"/>
+      <c r="D139" s="13"/>
+      <c r="E139" s="13"/>
       <c r="F139" s="6"/>
-      <c r="G139" s="7"/>
-      <c r="H139" s="7"/>
-      <c r="I139" s="7"/>
-      <c r="J139" s="7"/>
-      <c r="K139" s="7"/>
-      <c r="L139" s="7"/>
-      <c r="M139" s="7"/>
-      <c r="N139" s="7"/>
+      <c r="G139" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H139" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I139" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J139" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K139" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L139" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M139" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N139" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="140" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="5"/>
-      <c r="B140" s="5"/>
-      <c r="C140" s="6"/>
-      <c r="D140" s="5"/>
-      <c r="E140" s="5"/>
-      <c r="F140" s="6"/>
-      <c r="G140" s="7"/>
-      <c r="H140" s="7"/>
-      <c r="I140" s="7"/>
-      <c r="J140" s="7"/>
-      <c r="K140" s="7"/>
-      <c r="L140" s="7"/>
-      <c r="M140" s="7"/>
-      <c r="N140" s="7"/>
+      <c r="A140" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="B140" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="C140" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="D140" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="E140" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="F140" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="G140" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="H140" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="I140" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="J140" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="K140" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="L140" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="M140" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="N140" s="10" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="141" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="5"/>
-      <c r="B141" s="5"/>
-      <c r="C141" s="6"/>
-      <c r="D141" s="5"/>
-      <c r="E141" s="5"/>
-      <c r="F141" s="6"/>
+      <c r="A141" s="17"/>
+      <c r="B141" s="13"/>
+      <c r="C141" s="19"/>
+      <c r="D141" s="13"/>
+      <c r="E141" s="13"/>
+      <c r="F141" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="G141" s="7"/>
-      <c r="H141" s="7"/>
-      <c r="I141" s="7"/>
-      <c r="J141" s="7"/>
-      <c r="K141" s="7"/>
-      <c r="L141" s="7"/>
-      <c r="M141" s="7"/>
-      <c r="N141" s="7"/>
+      <c r="H141" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I141" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J141" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K141" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L141" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M141" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N141" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="142" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="5"/>
-      <c r="B142" s="5"/>
-      <c r="C142" s="6"/>
-      <c r="D142" s="5"/>
-      <c r="E142" s="5"/>
-      <c r="F142" s="6"/>
-      <c r="G142" s="7"/>
-      <c r="H142" s="7"/>
-      <c r="I142" s="7"/>
-      <c r="J142" s="7"/>
-      <c r="K142" s="7"/>
-      <c r="L142" s="7"/>
-      <c r="M142" s="7"/>
-      <c r="N142" s="7"/>
+      <c r="A142" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="B142" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="C142" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="D142" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="E142" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="F142" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="G142" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="H142" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="I142" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="J142" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="K142" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="L142" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="M142" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="N142" s="10" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="143" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="5"/>
-      <c r="B143" s="5"/>
-      <c r="C143" s="6"/>
-      <c r="D143" s="5"/>
-      <c r="E143" s="5"/>
-      <c r="F143" s="6"/>
+      <c r="A143" s="17"/>
+      <c r="B143" s="13"/>
+      <c r="C143" s="19"/>
+      <c r="D143" s="13"/>
+      <c r="E143" s="13"/>
+      <c r="F143" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="G143" s="7"/>
-      <c r="H143" s="7"/>
-      <c r="I143" s="7"/>
-      <c r="J143" s="7"/>
-      <c r="K143" s="7"/>
-      <c r="L143" s="7"/>
-      <c r="M143" s="7"/>
-      <c r="N143" s="7"/>
+      <c r="H143" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I143" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J143" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K143" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L143" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M143" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N143" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="144" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="5"/>
-      <c r="B144" s="5"/>
-      <c r="C144" s="6"/>
-      <c r="D144" s="5"/>
-      <c r="E144" s="5"/>
-      <c r="F144" s="6"/>
-      <c r="G144" s="7"/>
-      <c r="H144" s="7"/>
-      <c r="I144" s="7"/>
-      <c r="J144" s="7"/>
-      <c r="K144" s="4"/>
-      <c r="L144" s="4"/>
-      <c r="M144" s="4"/>
-      <c r="N144" s="4"/>
+      <c r="A144" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="B144" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="C144" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="D144" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="E144" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="F144" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="G144" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="H144" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="I144" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="J144" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="K144" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="L144" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="M144" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="N144" s="10" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="145" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="5"/>
-      <c r="B145" s="5"/>
-      <c r="C145" s="6"/>
-      <c r="D145" s="5"/>
-      <c r="E145" s="5"/>
-      <c r="F145" s="6"/>
-      <c r="G145" s="7"/>
+      <c r="A145" s="17"/>
+      <c r="B145" s="13"/>
+      <c r="C145" s="19"/>
+      <c r="D145" s="13"/>
+      <c r="E145" s="13"/>
+      <c r="F145" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G145" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="H145" s="7"/>
-      <c r="I145" s="7"/>
-      <c r="J145" s="7"/>
-      <c r="K145" s="7"/>
-      <c r="L145" s="7"/>
-      <c r="M145" s="7"/>
-      <c r="N145" s="7"/>
+      <c r="I145" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J145" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K145" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L145" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M145" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N145" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="146" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="5"/>
-      <c r="B146" s="5"/>
-      <c r="C146" s="6"/>
-      <c r="D146" s="5"/>
-      <c r="E146" s="5"/>
-      <c r="F146" s="6"/>
-      <c r="G146" s="7"/>
-      <c r="H146" s="7"/>
-      <c r="I146" s="7"/>
-      <c r="J146" s="7"/>
-      <c r="K146" s="7"/>
-      <c r="L146" s="7"/>
-      <c r="M146" s="7"/>
-      <c r="N146" s="7"/>
+      <c r="A146" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="B146" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="C146" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="D146" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E146" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="F146" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="G146" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="H146" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="I146" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="J146" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="K146" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="L146" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="M146" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="N146" s="10" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="147" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="5"/>
-      <c r="B147" s="5"/>
-      <c r="C147" s="6"/>
-      <c r="D147" s="5"/>
-      <c r="E147" s="5"/>
-      <c r="F147" s="6"/>
-      <c r="G147" s="7"/>
+      <c r="A147" s="17"/>
+      <c r="B147" s="13"/>
+      <c r="C147" s="19"/>
+      <c r="D147" s="13"/>
+      <c r="E147" s="13"/>
+      <c r="F147" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G147" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="H147" s="7"/>
-      <c r="I147" s="7"/>
-      <c r="J147" s="7"/>
-      <c r="K147" s="7"/>
-      <c r="L147" s="7"/>
-      <c r="M147" s="7"/>
-      <c r="N147" s="7"/>
+      <c r="I147" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J147" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K147" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L147" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M147" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N147" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="148" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="5"/>
-      <c r="B148" s="5"/>
-      <c r="C148" s="6"/>
-      <c r="D148" s="5"/>
-      <c r="E148" s="5"/>
-      <c r="F148" s="6"/>
-      <c r="G148" s="7"/>
-      <c r="H148" s="7"/>
-      <c r="I148" s="7"/>
-      <c r="J148" s="7"/>
-      <c r="K148" s="7"/>
-      <c r="L148" s="7"/>
-      <c r="M148" s="7"/>
-      <c r="N148" s="7"/>
+      <c r="A148" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="B148" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="C148" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="D148" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="E148" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="F148" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="G148" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="H148" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="I148" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="J148" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="K148" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="L148" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="M148" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="N148" s="10" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="149" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="5"/>
-      <c r="B149" s="5"/>
-      <c r="C149" s="6"/>
-      <c r="D149" s="5"/>
-      <c r="E149" s="5"/>
-      <c r="F149" s="6"/>
-      <c r="G149" s="7"/>
-      <c r="H149" s="7"/>
+      <c r="A149" s="17"/>
+      <c r="B149" s="13"/>
+      <c r="C149" s="19"/>
+      <c r="D149" s="13"/>
+      <c r="E149" s="13"/>
+      <c r="F149" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G149" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H149" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="I149" s="7"/>
-      <c r="J149" s="7"/>
-      <c r="K149" s="7"/>
-      <c r="L149" s="7"/>
-      <c r="M149" s="7"/>
-      <c r="N149" s="7"/>
+      <c r="J149" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K149" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L149" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M149" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N149" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="150" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="5"/>
-      <c r="B150" s="5"/>
-      <c r="C150" s="6"/>
-      <c r="D150" s="5"/>
-      <c r="E150" s="5"/>
-      <c r="F150" s="6"/>
-      <c r="G150" s="7"/>
-      <c r="H150" s="7"/>
-      <c r="I150" s="7"/>
-      <c r="J150" s="7"/>
-      <c r="K150" s="4"/>
-      <c r="L150" s="4"/>
-      <c r="M150" s="4"/>
-      <c r="N150" s="4"/>
+      <c r="A150" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="B150" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="C150" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="D150" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="E150" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="F150" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="G150" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="H150" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="I150" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="J150" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="K150" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="L150" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="M150" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="N150" s="10" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="151" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="5"/>
-      <c r="B151" s="5"/>
-      <c r="C151" s="6"/>
-      <c r="D151" s="5"/>
-      <c r="E151" s="5"/>
-      <c r="F151" s="6"/>
-      <c r="G151" s="7"/>
-      <c r="H151" s="7"/>
+      <c r="A151" s="17"/>
+      <c r="B151" s="13"/>
+      <c r="C151" s="19"/>
+      <c r="D151" s="13"/>
+      <c r="E151" s="13"/>
+      <c r="F151" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G151" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H151" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="I151" s="7"/>
-      <c r="J151" s="7"/>
-      <c r="K151" s="7"/>
-      <c r="L151" s="7"/>
-      <c r="M151" s="7"/>
-      <c r="N151" s="7"/>
+      <c r="J151" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K151" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L151" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M151" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N151" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="152" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="5"/>
-      <c r="B152" s="5"/>
-      <c r="C152" s="6"/>
-      <c r="D152" s="5"/>
-      <c r="E152" s="5"/>
-      <c r="F152" s="6"/>
-      <c r="G152" s="7"/>
-      <c r="H152" s="7"/>
-      <c r="I152" s="7"/>
-      <c r="J152" s="7"/>
-      <c r="K152" s="7"/>
-      <c r="L152" s="7"/>
-      <c r="M152" s="7"/>
-      <c r="N152" s="7"/>
+      <c r="A152" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="B152" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="C152" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="D152" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="E152" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F152" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="G152" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="H152" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="I152" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="J152" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="K152" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="L152" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="M152" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="N152" s="10" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="153" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="5"/>
-      <c r="B153" s="5"/>
-      <c r="C153" s="6"/>
-      <c r="D153" s="5"/>
-      <c r="E153" s="5"/>
-      <c r="F153" s="6"/>
-      <c r="G153" s="7"/>
-      <c r="H153" s="7"/>
-      <c r="I153" s="7"/>
+      <c r="A153" s="17"/>
+      <c r="B153" s="13"/>
+      <c r="C153" s="19"/>
+      <c r="D153" s="13"/>
+      <c r="E153" s="13"/>
+      <c r="F153" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G153" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H153" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I153" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="J153" s="7"/>
-      <c r="K153" s="7"/>
-      <c r="L153" s="7"/>
-      <c r="M153" s="7"/>
-      <c r="N153" s="7"/>
+      <c r="K153" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L153" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M153" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N153" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="154" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="5"/>
-      <c r="B154" s="5"/>
-      <c r="C154" s="6"/>
-      <c r="D154" s="5"/>
-      <c r="E154" s="5"/>
-      <c r="F154" s="6"/>
-      <c r="G154" s="7"/>
-      <c r="H154" s="7"/>
-      <c r="I154" s="7"/>
-      <c r="J154" s="7"/>
-      <c r="K154" s="7"/>
-      <c r="L154" s="7"/>
-      <c r="M154" s="7"/>
-      <c r="N154" s="7"/>
+      <c r="A154" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="B154" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="C154" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="D154" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="E154" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="F154" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="G154" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="H154" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="I154" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="J154" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="K154" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="L154" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="M154" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="N154" s="10" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="155" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="5"/>
-      <c r="B155" s="5"/>
-      <c r="C155" s="6"/>
-      <c r="D155" s="5"/>
-      <c r="E155" s="5"/>
-      <c r="F155" s="6"/>
-      <c r="G155" s="7"/>
-      <c r="H155" s="7"/>
-      <c r="I155" s="7"/>
+      <c r="A155" s="17"/>
+      <c r="B155" s="13"/>
+      <c r="C155" s="19"/>
+      <c r="D155" s="13"/>
+      <c r="E155" s="13"/>
+      <c r="F155" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G155" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H155" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I155" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="J155" s="7"/>
-      <c r="K155" s="7"/>
-      <c r="L155" s="7"/>
-      <c r="M155" s="7"/>
-      <c r="N155" s="7"/>
+      <c r="K155" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L155" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M155" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N155" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="156" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="5"/>
-      <c r="B156" s="5"/>
-      <c r="C156" s="6"/>
-      <c r="D156" s="5"/>
-      <c r="E156" s="5"/>
-      <c r="F156" s="6"/>
-      <c r="G156" s="7"/>
-      <c r="H156" s="7"/>
-      <c r="I156" s="7"/>
-      <c r="J156" s="7"/>
-      <c r="K156" s="4"/>
-      <c r="L156" s="4"/>
-      <c r="M156" s="4"/>
-      <c r="N156" s="4"/>
+      <c r="A156" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="B156" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="C156" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="D156" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="E156" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="F156" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="G156" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="H156" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="I156" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="J156" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="K156" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="L156" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="M156" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="N156" s="10" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="157" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="5"/>
-      <c r="B157" s="5"/>
-      <c r="C157" s="6"/>
-      <c r="D157" s="5"/>
-      <c r="E157" s="5"/>
-      <c r="F157" s="6"/>
-      <c r="G157" s="7"/>
-      <c r="H157" s="7"/>
-      <c r="I157" s="7"/>
-      <c r="J157" s="7"/>
+      <c r="A157" s="17"/>
+      <c r="B157" s="13"/>
+      <c r="C157" s="19"/>
+      <c r="D157" s="13"/>
+      <c r="E157" s="13"/>
+      <c r="F157" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G157" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H157" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I157" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J157" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="K157" s="7"/>
-      <c r="L157" s="7"/>
-      <c r="M157" s="7"/>
-      <c r="N157" s="7"/>
+      <c r="L157" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M157" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N157" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="158" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="5"/>
-      <c r="B158" s="5"/>
-      <c r="C158" s="6"/>
-      <c r="D158" s="5"/>
-      <c r="E158" s="5"/>
-      <c r="F158" s="6"/>
-      <c r="G158" s="7"/>
-      <c r="H158" s="7"/>
-      <c r="I158" s="7"/>
-      <c r="J158" s="7"/>
-      <c r="K158" s="7"/>
-      <c r="L158" s="7"/>
-      <c r="M158" s="7"/>
-      <c r="N158" s="7"/>
+      <c r="A158" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="B158" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="C158" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="D158" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="E158" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="F158" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="G158" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="H158" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="I158" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="J158" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="K158" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="L158" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="M158" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="N158" s="10" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="159" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="5"/>
-      <c r="B159" s="5"/>
-      <c r="C159" s="6"/>
-      <c r="D159" s="5"/>
-      <c r="E159" s="5"/>
-      <c r="F159" s="6"/>
-      <c r="G159" s="7"/>
-      <c r="H159" s="7"/>
-      <c r="I159" s="7"/>
-      <c r="J159" s="7"/>
+      <c r="A159" s="17"/>
+      <c r="B159" s="13"/>
+      <c r="C159" s="19"/>
+      <c r="D159" s="13"/>
+      <c r="E159" s="13"/>
+      <c r="F159" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G159" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H159" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I159" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J159" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="K159" s="7"/>
-      <c r="L159" s="7"/>
-      <c r="M159" s="7"/>
-      <c r="N159" s="7"/>
+      <c r="L159" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M159" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N159" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="B160" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="C160" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="D160" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="E160" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="F160" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="G160" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="H160" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="I160" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="J160" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="K160" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="L160" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="M160" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="N160" s="10" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="17"/>
+      <c r="B161" s="13"/>
+      <c r="C161" s="19"/>
+      <c r="D161" s="13"/>
+      <c r="E161" s="13"/>
+      <c r="F161" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G161" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H161" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I161" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J161" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K161" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L161" s="7"/>
+      <c r="M161" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N161" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="B162" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="C162" s="18" t="s">
+        <v>286</v>
+      </c>
+      <c r="D162" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="E162" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="F162" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="G162" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="H162" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="I162" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="J162" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="K162" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="L162" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="M162" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="N162" s="10" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="17"/>
+      <c r="B163" s="13"/>
+      <c r="C163" s="19"/>
+      <c r="D163" s="13"/>
+      <c r="E163" s="13"/>
+      <c r="F163" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G163" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H163" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I163" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J163" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K163" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L163" s="7"/>
+      <c r="M163" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N163" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="B164" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="C164" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="D164" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="E164" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="F164" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="G164" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="H164" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="I164" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="J164" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="K164" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="L164" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="M164" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="N164" s="10" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="17"/>
+      <c r="B165" s="13"/>
+      <c r="C165" s="19"/>
+      <c r="D165" s="13"/>
+      <c r="E165" s="13"/>
+      <c r="F165" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G165" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H165" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I165" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J165" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K165" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L165" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M165" s="7"/>
+      <c r="N165" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="B166" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="C166" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="D166" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="E166" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="F166" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="G166" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="H166" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="I166" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="J166" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="K166" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="L166" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="M166" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="N166" s="10" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="17"/>
+      <c r="B167" s="13"/>
+      <c r="C167" s="19"/>
+      <c r="D167" s="13"/>
+      <c r="E167" s="13"/>
+      <c r="F167" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G167" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H167" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I167" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J167" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K167" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L167" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M167" s="7"/>
+      <c r="N167" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="B168" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="C168" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="D168" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="E168" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="F168" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="G168" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="H168" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="I168" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="J168" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="K168" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="L168" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="M168" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="N168" s="10" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="17"/>
+      <c r="B169" s="13"/>
+      <c r="C169" s="19"/>
+      <c r="D169" s="13"/>
+      <c r="E169" s="13"/>
+      <c r="F169" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G169" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H169" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I169" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J169" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K169" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L169" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M169" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N169" s="7"/>
+    </row>
+    <row r="170" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="B170" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="C170" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="D170" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="E170" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="F170" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="G170" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="H170" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="I170" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="J170" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="K170" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="L170" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="M170" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="N170" s="10" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="17"/>
+      <c r="B171" s="13"/>
+      <c r="C171" s="19"/>
+      <c r="D171" s="13"/>
+      <c r="E171" s="13"/>
+      <c r="F171" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G171" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H171" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I171" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J171" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K171" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L171" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M171" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N171" s="7"/>
+    </row>
+    <row r="172" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="B172" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="C172" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="D172" s="5"/>
+      <c r="E172" s="5"/>
+      <c r="F172" s="6"/>
+      <c r="G172" s="7"/>
+      <c r="H172" s="7"/>
+      <c r="I172" s="7"/>
+      <c r="J172" s="7"/>
+      <c r="K172" s="7"/>
+      <c r="L172" s="7"/>
+      <c r="M172" s="7"/>
+      <c r="N172" s="7"/>
+    </row>
+    <row r="173" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="17"/>
+      <c r="B173" s="13"/>
+      <c r="C173" s="19"/>
+      <c r="D173" s="5"/>
+      <c r="E173" s="5"/>
+      <c r="F173" s="6"/>
+      <c r="G173" s="7"/>
+      <c r="H173" s="7"/>
+      <c r="I173" s="7"/>
+      <c r="J173" s="7"/>
+      <c r="K173" s="7"/>
+      <c r="L173" s="7"/>
+      <c r="M173" s="7"/>
+      <c r="N173" s="7"/>
+    </row>
+    <row r="174" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="B174" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="C174" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="D174" s="5"/>
+      <c r="E174" s="5"/>
+      <c r="F174" s="6"/>
+      <c r="G174" s="7"/>
+      <c r="H174" s="7"/>
+      <c r="I174" s="7"/>
+      <c r="J174" s="7"/>
+      <c r="K174" s="7"/>
+      <c r="L174" s="7"/>
+      <c r="M174" s="7"/>
+      <c r="N174" s="7"/>
+    </row>
+    <row r="175" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="17"/>
+      <c r="B175" s="13"/>
+      <c r="C175" s="19"/>
+      <c r="D175" s="5"/>
+      <c r="E175" s="5"/>
+      <c r="F175" s="6"/>
+      <c r="G175" s="7"/>
+      <c r="H175" s="7"/>
+      <c r="I175" s="7"/>
+      <c r="J175" s="7"/>
+      <c r="K175" s="7"/>
+      <c r="L175" s="7"/>
+      <c r="M175" s="7"/>
+      <c r="N175" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="310">
+  <mergeCells count="433">
+    <mergeCell ref="D168:D169"/>
+    <mergeCell ref="D170:D171"/>
+    <mergeCell ref="E168:E169"/>
+    <mergeCell ref="E170:E171"/>
+    <mergeCell ref="D160:D161"/>
+    <mergeCell ref="D162:D163"/>
+    <mergeCell ref="E160:E161"/>
+    <mergeCell ref="E162:E163"/>
+    <mergeCell ref="D154:D155"/>
+    <mergeCell ref="E152:E153"/>
+    <mergeCell ref="E154:E155"/>
+    <mergeCell ref="D156:D157"/>
+    <mergeCell ref="D158:D159"/>
+    <mergeCell ref="E156:E157"/>
+    <mergeCell ref="E158:E159"/>
+    <mergeCell ref="D164:D165"/>
+    <mergeCell ref="D166:D167"/>
+    <mergeCell ref="E164:E165"/>
+    <mergeCell ref="E166:E167"/>
+    <mergeCell ref="D144:D145"/>
+    <mergeCell ref="D146:D147"/>
+    <mergeCell ref="E144:E145"/>
+    <mergeCell ref="E146:E147"/>
+    <mergeCell ref="D148:D149"/>
+    <mergeCell ref="D150:D151"/>
+    <mergeCell ref="E148:E149"/>
+    <mergeCell ref="E150:E151"/>
+    <mergeCell ref="D152:D153"/>
+    <mergeCell ref="A174:A175"/>
+    <mergeCell ref="B174:B175"/>
+    <mergeCell ref="C140:C141"/>
+    <mergeCell ref="C142:C143"/>
+    <mergeCell ref="C144:C145"/>
+    <mergeCell ref="C146:C147"/>
+    <mergeCell ref="C148:C149"/>
+    <mergeCell ref="C150:C151"/>
+    <mergeCell ref="C152:C153"/>
+    <mergeCell ref="C154:C155"/>
+    <mergeCell ref="C156:C157"/>
+    <mergeCell ref="C158:C159"/>
+    <mergeCell ref="C160:C161"/>
+    <mergeCell ref="C162:C163"/>
+    <mergeCell ref="C164:C165"/>
+    <mergeCell ref="C166:C167"/>
+    <mergeCell ref="C168:C169"/>
+    <mergeCell ref="C170:C171"/>
+    <mergeCell ref="C172:C173"/>
+    <mergeCell ref="C174:C175"/>
+    <mergeCell ref="A164:A165"/>
+    <mergeCell ref="B164:B165"/>
+    <mergeCell ref="A166:A167"/>
+    <mergeCell ref="B166:B167"/>
+    <mergeCell ref="A168:A169"/>
+    <mergeCell ref="B168:B169"/>
+    <mergeCell ref="A170:A171"/>
+    <mergeCell ref="B170:B171"/>
+    <mergeCell ref="A172:A173"/>
+    <mergeCell ref="B172:B173"/>
+    <mergeCell ref="A154:A155"/>
+    <mergeCell ref="B154:B155"/>
+    <mergeCell ref="A156:A157"/>
+    <mergeCell ref="B156:B157"/>
+    <mergeCell ref="A158:A159"/>
+    <mergeCell ref="B158:B159"/>
+    <mergeCell ref="A160:A161"/>
+    <mergeCell ref="B160:B161"/>
+    <mergeCell ref="A162:A163"/>
+    <mergeCell ref="B162:B163"/>
+    <mergeCell ref="A144:A145"/>
+    <mergeCell ref="B144:B145"/>
+    <mergeCell ref="A146:A147"/>
+    <mergeCell ref="B146:B147"/>
+    <mergeCell ref="A148:A149"/>
+    <mergeCell ref="B148:B149"/>
+    <mergeCell ref="A150:A151"/>
+    <mergeCell ref="B150:B151"/>
+    <mergeCell ref="A152:A153"/>
+    <mergeCell ref="B152:B153"/>
+    <mergeCell ref="A138:A139"/>
+    <mergeCell ref="B138:B139"/>
+    <mergeCell ref="C138:C139"/>
+    <mergeCell ref="D138:D139"/>
+    <mergeCell ref="E138:E139"/>
+    <mergeCell ref="A140:A141"/>
+    <mergeCell ref="B140:B141"/>
+    <mergeCell ref="A142:A143"/>
+    <mergeCell ref="B142:B143"/>
+    <mergeCell ref="D140:D141"/>
+    <mergeCell ref="D142:D143"/>
+    <mergeCell ref="E140:E141"/>
+    <mergeCell ref="E142:E143"/>
+    <mergeCell ref="K112:N133"/>
+    <mergeCell ref="A134:A135"/>
+    <mergeCell ref="B134:B135"/>
+    <mergeCell ref="C134:D135"/>
+    <mergeCell ref="E134:E135"/>
+    <mergeCell ref="A136:A137"/>
+    <mergeCell ref="B136:B137"/>
+    <mergeCell ref="C136:C137"/>
+    <mergeCell ref="D136:D137"/>
+    <mergeCell ref="E136:E137"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="C126:C127"/>
+    <mergeCell ref="C128:C129"/>
+    <mergeCell ref="C130:C131"/>
+    <mergeCell ref="C132:C133"/>
+    <mergeCell ref="D118:D119"/>
+    <mergeCell ref="D120:D121"/>
+    <mergeCell ref="E118:E119"/>
+    <mergeCell ref="E120:E121"/>
+    <mergeCell ref="D122:D123"/>
+    <mergeCell ref="D124:D125"/>
+    <mergeCell ref="E122:E123"/>
+    <mergeCell ref="E124:E125"/>
+    <mergeCell ref="D126:D127"/>
+    <mergeCell ref="D128:D129"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="E128:E129"/>
+    <mergeCell ref="D130:D131"/>
+    <mergeCell ref="E130:E131"/>
+    <mergeCell ref="D132:D133"/>
+    <mergeCell ref="E132:E133"/>
     <mergeCell ref="A124:A125"/>
     <mergeCell ref="B124:B125"/>
     <mergeCell ref="A126:A127"/>
@@ -11895,6 +16093,7 @@
     <mergeCell ref="E116:E117"/>
     <mergeCell ref="C118:C119"/>
     <mergeCell ref="C120:C121"/>
+    <mergeCell ref="C122:C123"/>
     <mergeCell ref="A112:A113"/>
     <mergeCell ref="B112:B113"/>
     <mergeCell ref="C112:D113"/>
